--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="253">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -451,6 +451,16 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
+  </si>
+  <si>
+    <t>medicationDefinition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/medicationDefinition}
+</t>
+  </si>
+  <si>
+    <t>Medication Definition extension</t>
   </si>
   <si>
     <t>Medication.modifierExtension</t>
@@ -1111,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1121,7 +1131,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2273,11 +2283,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2290,26 +2302,22 @@
         <v>74</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2357,7 +2365,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2366,7 +2374,7 @@
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>134</v>
@@ -2375,7 +2383,7 @@
         <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>74</v>
@@ -2386,11 +2394,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2403,24 +2411,26 @@
         <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2468,7 +2478,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2480,16 +2490,16 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>74</v>
@@ -2497,7 +2507,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2508,7 +2518,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -2520,16 +2530,16 @@
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2555,13 +2565,13 @@
         <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>74</v>
@@ -2579,13 +2589,13 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
@@ -2594,21 +2604,21 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2625,22 +2635,22 @@
         <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2666,13 +2676,13 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
@@ -2690,7 +2700,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2705,21 +2715,21 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>74</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2736,21 +2746,23 @@
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2775,13 +2787,13 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2799,7 +2811,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2814,21 +2826,21 @@
         <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2848,20 +2860,18 @@
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -2886,13 +2896,13 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -2910,7 +2920,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2925,21 +2935,21 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2959,18 +2969,20 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -2995,13 +3007,13 @@
         <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3019,7 +3031,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3034,21 +3046,21 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3059,7 +3071,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -3068,20 +3080,18 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3130,13 +3140,13 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
@@ -3148,7 +3158,7 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3159,7 +3169,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3170,7 +3180,7 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>74</v>
@@ -3182,15 +3192,17 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3239,25 +3251,25 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -3268,18 +3280,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3291,17 +3303,15 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3350,25 +3360,25 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3379,11 +3389,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3396,26 +3406,24 @@
         <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3481,7 +3489,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3492,40 +3500,42 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3574,36 +3584,36 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3611,7 +3621,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>83</v>
@@ -3626,17 +3636,17 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3685,10 +3695,10 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>83</v>
@@ -3700,21 +3710,21 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3737,16 +3747,18 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3794,7 +3806,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3809,21 +3821,21 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3846,13 +3858,13 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3903,7 +3915,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3918,21 +3930,21 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3955,13 +3967,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4012,7 +4024,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4024,13 +4036,13 @@
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4041,18 +4053,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4064,17 +4076,15 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4123,25 +4133,25 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4152,11 +4162,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4169,26 +4179,24 @@
         <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4236,7 +4244,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4254,7 +4262,7 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4265,39 +4273,43 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4345,36 +4357,36 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4397,13 +4409,13 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4454,7 +4466,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4469,16 +4481,125 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="K31" t="s" s="2">
         <v>249</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-20T14:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:38:33+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/DefinedMed</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/DefinedMed</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -442,7 +442,7 @@
     <t>drugCharacteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/drugCharacteristic}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/drugCharacteristic}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>medicationDefinition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/medicationDefinition}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/medicationDefinition}
 </t>
   </si>
   <si>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/DefinedMed</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/DefinedMed</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-06-28T12:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -442,7 +442,7 @@
     <t>drugCharacteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/drugCharacteristic}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/drugCharacteristic}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>medicationDefinition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/medicationDefinition}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/medicationDefinition}
 </t>
   </si>
   <si>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:41:32+00:00</t>
+    <t>2022-06-28T12:44:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:44:43+00:00</t>
+    <t>2022-08-13T20:35:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1131,39 +1131,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.03515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="98.9296875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="254">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/DefinedMed</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/DefinedMed</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-13T20:35:38+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -442,7 +442,7 @@
     <t>drugCharacteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/drugCharacteristic}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/drugCharacteristic}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>medicationDefinition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/medicationDefinition}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/medicationDefinition}
 </t>
   </si>
   <si>
@@ -663,6 +663,10 @@
   </si>
   <si>
     <t>Medication.ingredient.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3303,13 +3307,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3360,7 +3364,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3378,7 +3382,7 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3389,7 +3393,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3415,10 +3419,10 @@
         <v>128</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>146</v>
@@ -3471,7 +3475,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3489,7 +3493,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3500,11 +3504,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3526,10 +3530,10 @@
         <v>128</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>146</v>
@@ -3584,7 +3588,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3613,7 +3617,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3636,17 +3640,17 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3695,7 +3699,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>83</v>
@@ -3713,18 +3717,18 @@
         <v>164</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3747,17 +3751,17 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -3806,7 +3810,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3824,7 +3828,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -3835,7 +3839,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3861,10 +3865,10 @@
         <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3915,7 +3919,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3930,7 +3934,7 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>197</v>
@@ -3939,12 +3943,12 @@
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3970,10 +3974,10 @@
         <v>199</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4024,7 +4028,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4042,7 +4046,7 @@
         <v>180</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4053,7 +4057,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4076,13 +4080,13 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4133,7 +4137,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4151,7 +4155,7 @@
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4162,7 +4166,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4188,10 +4192,10 @@
         <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>146</v>
@@ -4244,7 +4248,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4262,7 +4266,7 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4273,11 +4277,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4299,10 +4303,10 @@
         <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>146</v>
@@ -4357,7 +4361,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4386,7 +4390,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4409,13 +4413,13 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4466,7 +4470,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4490,12 +4494,12 @@
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4518,13 +4522,13 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4575,7 +4579,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4593,13 +4597,13 @@
         <v>180</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/DefinedMed</t>
+    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/DefinedMed</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-06T17:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -442,7 +442,7 @@
     <t>drugCharacteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/drugCharacteristic}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/drugCharacteristic}
 </t>
   </si>
   <si>
@@ -456,7 +456,7 @@
     <t>medicationDefinition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/medicationDefinition}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/medicationDefinition}
 </t>
   </si>
   <si>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:30:01+00:00</t>
+    <t>2022-10-06T17:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="253">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/DefinedMed</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/DefinedMed</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:31:26+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>This resource is primarily used for the identification and definition of a medication for the purposes of prescribing, dispensing, and administering a medication as well as for making statements about medication use.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -442,7 +438,7 @@
     <t>drugCharacteristic</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/drugCharacteristic}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/drugCharacteristic}
 </t>
   </si>
   <si>
@@ -456,7 +452,7 @@
     <t>medicationDefinition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/medigree/StructureDefinition/medicationDefinition}
+    <t xml:space="preserve">Extension {http://medigree.net/eu/fhir/mpd/StructureDefinition/medicationDefinition}
 </t>
   </si>
   <si>
@@ -1388,13 +1384,13 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>74</v>
@@ -1405,7 +1401,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1416,28 +1412,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1487,13 +1483,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1516,7 +1512,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1527,25 +1523,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1596,19 +1592,19 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
@@ -1625,7 +1621,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1636,28 +1632,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1707,19 +1703,19 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -1736,7 +1732,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1747,7 +1743,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -1759,16 +1755,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1794,43 +1790,43 @@
         <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
@@ -1847,18 +1843,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -1870,16 +1866,16 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1929,25 +1925,25 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>74</v>
@@ -1958,11 +1954,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1981,16 +1977,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2040,7 +2036,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2058,7 +2054,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>74</v>
@@ -2069,7 +2065,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2092,13 +2088,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2137,17 +2133,17 @@
         <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2159,7 +2155,7 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
@@ -2176,10 +2172,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
@@ -2201,13 +2197,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>137</v>
-      </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2258,7 +2254,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2267,10 +2263,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -2287,10 +2283,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>74</v>
@@ -2312,13 +2308,13 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2369,7 +2365,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2378,10 +2374,10 @@
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
@@ -2398,11 +2394,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2415,25 +2411,25 @@
         <v>74</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -2482,7 +2478,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2494,13 +2490,13 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2511,7 +2507,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2531,19 +2527,19 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2593,7 +2589,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2605,16 +2601,16 @@
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>74</v>
@@ -2622,7 +2618,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2633,28 +2629,28 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2680,60 +2676,60 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
+      <c r="AK14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2744,28 +2740,28 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2791,49 +2787,49 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -2844,7 +2840,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2855,25 +2851,25 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2924,36 +2920,36 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2964,7 +2960,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -2976,16 +2972,16 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3011,60 +3007,60 @@
         <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3075,25 +3071,25 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3144,25 +3140,25 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>74</v>
@@ -3173,7 +3169,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3196,16 +3192,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3255,7 +3251,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3267,13 +3263,13 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>74</v>
@@ -3284,7 +3280,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3295,7 +3291,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3307,13 +3303,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3364,25 +3360,25 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3393,11 +3389,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3416,16 +3412,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M21" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3475,7 +3471,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3487,13 +3483,13 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3504,11 +3500,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3521,25 +3517,25 @@
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="M22" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3588,7 +3584,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3600,13 +3596,13 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3617,7 +3613,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3625,10 +3621,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3640,17 +3636,17 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3699,36 +3695,36 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3739,7 +3735,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -3751,17 +3747,17 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -3810,25 +3806,25 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -3839,7 +3835,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3850,7 +3846,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -3862,13 +3858,13 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3919,36 +3915,36 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3959,7 +3955,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
@@ -3971,13 +3967,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4028,25 +4024,25 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4057,7 +4053,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4068,7 +4064,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4080,13 +4076,13 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4137,25 +4133,25 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4166,11 +4162,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4189,16 +4185,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4248,7 +4244,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4260,13 +4256,13 @@
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4277,11 +4273,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4294,25 +4290,25 @@
         <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="M29" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4361,7 +4357,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4373,13 +4369,13 @@
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4390,7 +4386,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4401,7 +4397,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -4413,13 +4409,13 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4470,36 +4466,36 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4510,7 +4506,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
@@ -4522,13 +4518,13 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4579,31 +4575,31 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DefinedMed.xlsx
+++ b/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
